--- a/ShopOnline/Reports/QR_Code_Export.xlsx
+++ b/ShopOnline/Reports/QR_Code_Export.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8049A533-5C4C-4196-B23D-E585EC3E80C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR_Code_Export" sheetId="4" r:id="rId1"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,7 +393,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="FDC"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="FDC">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -439,7 +446,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C67D515-77BD-48C5-B983-8EDC728F1622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -483,7 +496,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1780696D-E132-4E7C-BB8C-B0057653DECC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -527,7 +546,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D789E1BE-519E-4F8D-A1DF-8B145A647D69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -571,7 +596,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0E5EC5-6A31-4E47-9FDE-9DFF0BC8BE99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -615,7 +646,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC9633F-70FE-4243-A981-2F3DFA53A1DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -659,7 +696,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4462172F-5E96-4461-AA1B-9F8D0A75CD2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -703,7 +746,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96031A1E-3980-4A99-B1FC-CF427CDC866A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -747,7 +796,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA213BF-05FC-4C96-8FF9-AF1943630403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -791,7 +846,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB06870-FB3D-459D-BB42-36067A2EDA7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -835,7 +896,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C9B8DD-1B08-4C98-BE78-CD0498981796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -879,7 +946,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969ECDD1-470C-4023-B650-C1F135C921CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -923,7 +996,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF48685-B542-4F4C-83BC-2FC9680A6DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -967,7 +1046,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9426B8E6-AF33-4D36-B89C-BC253B80A36F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1011,7 +1096,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ECBF637-C61F-464C-A190-278ECC2D4F21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1055,7 +1146,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89426414-2F9D-4DAB-9623-AD04A6C0D210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1099,7 +1196,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632A98D0-0E66-40D5-9FC0-96EF5F00E795}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1143,7 +1246,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9366043E-4C64-4917-8A27-4252562DEDE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1187,7 +1296,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2166C2D6-3281-410C-AF36-50F2010B2D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1231,7 +1346,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA61805-BA24-4C24-B194-6BA2C9F47048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1275,7 +1396,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3561368A-8F0D-4061-8839-5461A7E71956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1319,7 +1446,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72AA7DA1-87D2-4503-B532-FE060E7686C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1363,7 +1496,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E7DFA5B-608A-42FF-86AA-756BE59E5E01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1407,7 +1546,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09956A5-32B8-47F2-8726-217A3256970A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1451,7 +1596,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6A11FC-E2DC-4E2B-AD51-218B68F2C0FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1495,7 +1646,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDC54FF-D5FB-4A49-8939-A777C7566697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1539,7 +1696,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D8C09B-1A07-4A0C-941D-2F6EDBCA3F0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1583,7 +1746,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D31AB9D-E011-4EEF-8554-1265B7F8BB10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1627,7 +1796,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347A1C8C-35E0-45BC-A6DF-A71000275BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1671,7 +1846,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C883E77F-051C-49BE-91B1-7D6712644547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1715,7 +1896,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085BF8B2-7B68-4909-A665-DE2D9917C891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -1823,6 +2010,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1858,6 +2062,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2033,7 +2254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>

--- a/ShopOnline/Reports/QR_Code_Export.xlsx
+++ b/ShopOnline/Reports/QR_Code_Export.xlsx
@@ -11,27 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR_Code_Export!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">QR_Code_Export!$A$1:$J$264</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">QR_Code_Export!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">QR_Code_Export!$A$1:$K$258</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>P/B/BP/Dự án:</t>
-  </si>
-  <si>
-    <t>Ngày:</t>
-  </si>
-  <si>
-    <t>Số:</t>
-  </si>
-  <si>
-    <t>DANH SÁCH QR CODE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="13">
   <si>
     <t>TEM THIẾT BỊ VĂN PHÒNG</t>
   </si>
@@ -51,13 +38,25 @@
     <t>Phòng/Ban:</t>
   </si>
   <si>
-    <t>Phòng Tổng Hợp</t>
+    <t>Phòng Thiết Bị</t>
+  </si>
+  <si>
+    <t>Vị Trí:</t>
+  </si>
+  <si>
+    <t>Lầu 2 Coteccons Tower</t>
   </si>
   <si>
     <t>Mã Thiết bị:</t>
   </si>
   <si>
     <t>BAN_0.6x1.2_001</t>
+  </si>
+  <si>
+    <t>Phòng Tổng Hợp</t>
+  </si>
+  <si>
+    <t>Lầu 1 Coteccons Tower</t>
   </si>
 </sst>
 </file>
@@ -73,97 +72,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -284,82 +225,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,130 +333,1843 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>256440</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>67115</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>452850</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="101600"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>41715</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="FDC"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="256440" y="294250"/>
-          <a:ext cx="899795" cy="428869"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517650" y="612775"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="819150" y="1416050"/>
-          <a:ext cx="571500" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2559050" y="101600"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4013200" y="612775"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054600" y="101600"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6508750" y="612775"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2682875" y="1825625"/>
-          <a:ext cx="609600" cy="609600"/>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="1701800"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517650" y="2212975"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2559050" y="1701800"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4013200" y="2212975"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054600" y="1701800"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6508750" y="2212975"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="3302000"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517650" y="3813175"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2559050" y="3302000"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4013200" y="3813175"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054600" y="3302000"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6508750" y="3813175"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="4902200"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517650" y="5413375"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2559050" y="4902200"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4013200" y="5413375"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054600" y="4902200"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6508750" y="5413375"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="6502400"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517650" y="7013575"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2559050" y="6502400"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4013200" y="7013575"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054600" y="6502400"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6508750" y="7013575"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="8102600"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517650" y="8613775"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2559050" y="8102600"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4013200" y="8613775"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054600" y="8102600"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6508750" y="8613775"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="9702800"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517650" y="10213975"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2559050" y="9702800"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4013200" y="10213975"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5054600" y="9702800"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6508750" y="10213975"/>
+          <a:ext cx="457200" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,153 +2470,1183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="13.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="12" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="11" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="14"/>
+      <c r="E4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="I4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
+      <c r="C5" s="15"/>
+      <c r="E5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="I5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="E6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="I6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
+      <c r="E7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="I7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="E8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="I8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="E13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="I13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="E14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="I14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="B15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+      <c r="C15" s="15"/>
+      <c r="E15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="I15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="B16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+      <c r="C16" s="15"/>
+      <c r="E16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="I16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="B17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="C17" s="16"/>
+      <c r="E17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="I17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="21"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="E22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="I22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="E23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="I23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C24" s="15"/>
+      <c r="E24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="I24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="23"/>
-    </row>
+      <c r="C25" s="15"/>
+      <c r="E25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="I25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="E26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="I26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="21"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="E31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="I31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="E32" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="26"/>
+      <c r="I32" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="E33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="26"/>
+      <c r="I33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="E34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="I34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="E35" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="I35" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="10"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="21"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="E40" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="I40" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="E41" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="26"/>
+      <c r="I41" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="E42" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="26"/>
+      <c r="I42" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="E43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="26"/>
+      <c r="I43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="E44" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="27"/>
+      <c r="I44" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="20"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="10"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="21"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="E49" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="25"/>
+      <c r="I49" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="E50" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="26"/>
+      <c r="I50" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="E51" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="26"/>
+      <c r="I51" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="E52" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="26"/>
+      <c r="I52" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="E53" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="27"/>
+      <c r="I53" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="20"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="10"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="21"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="23"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+    </row>
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="E58" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="I58" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="E59" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="26"/>
+      <c r="I59" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="E60" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="26"/>
+      <c r="I60" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="E61" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="26"/>
+      <c r="I61" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="E62" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="27"/>
+      <c r="I62" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:D8"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C2:J2"/>
+  <mergeCells count="63">
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="J46:K48"/>
+    <mergeCell ref="K49:K53"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:C57"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:G57"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:K57"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:K39"/>
+    <mergeCell ref="K40:K44"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:C48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:C39"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:G39"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="K22:K26"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:C30"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:G30"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:K30"/>
+    <mergeCell ref="K31:K35"/>
+    <mergeCell ref="J10:K12"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:C21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:G21"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:K21"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:K3"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:C12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:G12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:G3"/>
+    <mergeCell ref="G4:G8"/>
   </mergeCells>
-  <pageMargins left="0.98425196850393704" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.31496062992125984" bottom="0.31496062992125984" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;10Trang &amp;P/&amp;N</oddFooter>
   </headerFooter>

--- a/ShopOnline/Reports/QR_Code_Export.xlsx
+++ b/ShopOnline/Reports/QR_Code_Export.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR_Code_Export!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">QR_Code_Export!$A$1:$J$259</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">QR_Code_Export!$A$1:$J$298</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="9">
   <si>
     <t>TEM THIẾT BỊ VĂN PHÒNG</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Tên Thiết bị:</t>
   </si>
   <si>
-    <t>Bàn làm vi?c 0.6x1.2</t>
+    <t>CPU</t>
   </si>
   <si>
     <t>Ngày cấp:</t>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>BAN_0.6x1.2_001</t>
-  </si>
-  <si>
-    <t>Bàn làm việc 0.6x1.2</t>
   </si>
 </sst>
 </file>
@@ -203,13 +200,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -233,7 +230,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="209550"/>
+          <a:off x="241300" y="228600"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -247,13 +244,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -277,7 +274,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="184150"/>
+          <a:off x="1120775" y="203200"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -291,13 +288,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -321,7 +318,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="800100"/>
+          <a:off x="241300" y="809625"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -335,13 +332,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -365,7 +362,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="774700"/>
+          <a:off x="1120775" y="784225"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -379,13 +376,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -423,13 +420,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -467,13 +464,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -497,7 +494,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="1981200"/>
+          <a:off x="241300" y="1971675"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -511,13 +508,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -541,7 +538,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="1955800"/>
+          <a:off x="1120775" y="1946275"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -555,13 +552,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -585,7 +582,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="2571750"/>
+          <a:off x="241300" y="2552700"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -599,13 +596,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -629,7 +626,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="2546350"/>
+          <a:off x="1120775" y="2527300"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -643,13 +640,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -673,7 +670,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="3162300"/>
+          <a:off x="241300" y="3133725"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -687,13 +684,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -717,7 +714,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="3136900"/>
+          <a:off x="1120775" y="3108325"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -731,13 +728,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -761,7 +758,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="3752850"/>
+          <a:off x="241300" y="3714750"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -775,13 +772,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -805,7 +802,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="3727450"/>
+          <a:off x="1120775" y="3689350"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -819,13 +816,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -849,7 +846,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="4343400"/>
+          <a:off x="241300" y="4295775"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -863,13 +860,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -893,7 +890,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="4318000"/>
+          <a:off x="1120775" y="4270375"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -907,13 +904,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -937,7 +934,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="4933950"/>
+          <a:off x="241300" y="4876800"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -951,13 +948,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -981,7 +978,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="4908550"/>
+          <a:off x="1120775" y="4851400"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -995,13 +992,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1025,7 +1022,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="5524500"/>
+          <a:off x="241300" y="5457825"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1039,13 +1036,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1069,7 +1066,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="5499100"/>
+          <a:off x="1120775" y="5432425"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1083,13 +1080,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1113,7 +1110,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="6115050"/>
+          <a:off x="241300" y="6038850"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1127,13 +1124,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1157,7 +1154,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="6089650"/>
+          <a:off x="1120775" y="6013450"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1171,13 +1168,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1201,7 +1198,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="6705600"/>
+          <a:off x="241300" y="6619875"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1215,13 +1212,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1245,7 +1242,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="6680200"/>
+          <a:off x="1120775" y="6594475"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1259,13 +1256,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1289,7 +1286,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="7296150"/>
+          <a:off x="241300" y="7200900"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1303,13 +1300,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1333,7 +1330,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="7270750"/>
+          <a:off x="1120775" y="7175500"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1347,13 +1344,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1377,7 +1374,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="7886700"/>
+          <a:off x="241300" y="7781925"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1391,13 +1388,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1421,7 +1418,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="7861300"/>
+          <a:off x="1120775" y="7756525"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1435,13 +1432,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1465,7 +1462,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="8477250"/>
+          <a:off x="241300" y="8362950"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1479,13 +1476,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1509,7 +1506,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="8451850"/>
+          <a:off x="1120775" y="8337550"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1523,13 +1520,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1553,7 +1550,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="9067800"/>
+          <a:off x="241300" y="8943975"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1567,13 +1564,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1597,7 +1594,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="9042400"/>
+          <a:off x="1120775" y="8918575"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1611,13 +1608,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1641,7 +1638,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="9658350"/>
+          <a:off x="241300" y="9829800"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1655,13 +1652,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1685,7 +1682,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="9632950"/>
+          <a:off x="1120775" y="9804400"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1699,13 +1696,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1729,7 +1726,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="10248900"/>
+          <a:off x="241300" y="10410825"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1743,13 +1740,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1773,7 +1770,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="10223500"/>
+          <a:off x="1120775" y="10385425"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1787,13 +1784,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1817,7 +1814,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="10839450"/>
+          <a:off x="241300" y="10991850"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1831,13 +1828,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1861,7 +1858,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="10814050"/>
+          <a:off x="1120775" y="10966450"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1875,13 +1872,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1905,7 +1902,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="11430000"/>
+          <a:off x="241300" y="11572875"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1919,13 +1916,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1949,7 +1946,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="11404600"/>
+          <a:off x="1120775" y="11547475"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1963,13 +1960,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1993,7 +1990,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="12020550"/>
+          <a:off x="241300" y="12153900"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2007,13 +2004,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2037,7 +2034,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="11995150"/>
+          <a:off x="1120775" y="12128500"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2051,13 +2048,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2081,7 +2078,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="12611100"/>
+          <a:off x="241300" y="12734925"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2095,13 +2092,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2125,7 +2122,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="12585700"/>
+          <a:off x="1120775" y="12709525"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2139,13 +2136,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2169,7 +2166,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="13201650"/>
+          <a:off x="241300" y="13315950"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2183,13 +2180,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2213,7 +2210,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="13176250"/>
+          <a:off x="1120775" y="13290550"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2227,13 +2224,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2257,7 +2254,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="13792200"/>
+          <a:off x="241300" y="13896975"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2271,13 +2268,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2301,7 +2298,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="13766800"/>
+          <a:off x="1120775" y="13871575"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2315,13 +2312,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2345,7 +2342,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="14382750"/>
+          <a:off x="241300" y="14478000"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2359,13 +2356,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2389,7 +2386,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="14357350"/>
+          <a:off x="1120775" y="14452600"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2403,13 +2400,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2433,7 +2430,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="14973300"/>
+          <a:off x="241300" y="15059025"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2447,13 +2444,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2477,7 +2474,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="14947900"/>
+          <a:off x="1120775" y="15033625"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2491,13 +2488,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2521,7 +2518,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="15563850"/>
+          <a:off x="241300" y="15640050"/>
           <a:ext cx="203200" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2535,13 +2532,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2565,7 +2562,975 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120775" y="15538450"/>
+          <a:off x="1120775" y="15614650"/>
+          <a:ext cx="431800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="16221075"/>
+          <a:ext cx="203200" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120775" y="16195675"/>
+          <a:ext cx="431800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="16802100"/>
+          <a:ext cx="203200" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120775" y="16776700"/>
+          <a:ext cx="431800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="17383125"/>
+          <a:ext cx="203200" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120775" y="17357725"/>
+          <a:ext cx="431800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="17964150"/>
+          <a:ext cx="203200" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120775" y="17938750"/>
+          <a:ext cx="431800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="18545175"/>
+          <a:ext cx="203200" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120775" y="18519775"/>
+          <a:ext cx="431800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="19431000"/>
+          <a:ext cx="203200" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120775" y="19405600"/>
+          <a:ext cx="431800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="20012025"/>
+          <a:ext cx="203200" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120775" y="19986625"/>
+          <a:ext cx="431800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="20593050"/>
+          <a:ext cx="203200" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120775" y="20567650"/>
+          <a:ext cx="431800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="21174075"/>
+          <a:ext cx="203200" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120775" y="21148675"/>
+          <a:ext cx="431800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="21755100"/>
+          <a:ext cx="203200" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120775" y="21729700"/>
+          <a:ext cx="431800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="22336125"/>
+          <a:ext cx="203200" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120775" y="22310725"/>
           <a:ext cx="431800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2869,10 +3834,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B4:F246"/>
+  <dimension ref="B4:F358"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="250" zoomScaleNormal="100" zoomScaleSheetLayoutView="250" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2891,53 +3856,45 @@
     <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="2:4" ht="2.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -2946,61 +3903,61 @@
     </row>
     <row r="11" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="8" t="s">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
@@ -3009,61 +3966,61 @@
     </row>
     <row r="20" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="8" t="s">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="9">
         <v>1</v>
@@ -3072,61 +4029,61 @@
     </row>
     <row r="29" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="8" t="s">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="9">
         <v>1</v>
@@ -3135,61 +4092,61 @@
     </row>
     <row r="38" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="9">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="8" t="s">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="9">
         <v>1</v>
@@ -3198,61 +4155,61 @@
     </row>
     <row r="47" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="8" t="s">
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" s="9">
         <v>1</v>
@@ -3261,61 +4218,61 @@
     </row>
     <row r="56" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="9">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-      <c r="C58" s="8" t="s">
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+      <c r="C59" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="4"/>
+      <c r="D59" s="3"/>
     </row>
     <row r="60" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-      <c r="C60" s="7"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" s="9">
         <v>1</v>
@@ -3324,61 +4281,61 @@
     </row>
     <row r="65" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="9">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-      <c r="C67" s="8" t="s">
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+      <c r="C68" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="4"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="5"/>
-      <c r="C69" s="7"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="6"/>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" s="9">
         <v>1</v>
@@ -3387,61 +4344,61 @@
     </row>
     <row r="74" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="9">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="3"/>
-      <c r="C76" s="8" t="s">
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="3"/>
+      <c r="C77" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="4"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="4"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="5"/>
-      <c r="C78" s="7"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" s="9">
         <v>1</v>
@@ -3450,61 +4407,61 @@
     </row>
     <row r="83" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="9">
+        <v>1</v>
+      </c>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="5"/>
-    </row>
-    <row r="84" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
-      <c r="C85" s="8" t="s">
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="3"/>
+      <c r="C86" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="4"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="4"/>
+      <c r="D86" s="3"/>
     </row>
     <row r="87" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="5"/>
-      <c r="C87" s="7"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="6"/>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" s="9">
         <v>1</v>
@@ -3513,61 +4470,61 @@
     </row>
     <row r="92" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="9">
+        <v>1</v>
+      </c>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C93" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="5"/>
-    </row>
-    <row r="93" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="3"/>
-      <c r="C94" s="8" t="s">
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="3"/>
+      <c r="C95" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="4"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="4"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="96" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="5"/>
-      <c r="C96" s="7"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="6"/>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="7"/>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" s="9">
         <v>1</v>
@@ -3576,61 +4533,61 @@
     </row>
     <row r="101" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="9">
+        <v>1</v>
+      </c>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C102" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="5"/>
-    </row>
-    <row r="102" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
-      <c r="C103" s="8" t="s">
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="3"/>
+      <c r="C104" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="4"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="4"/>
+      <c r="D104" s="3"/>
     </row>
     <row r="105" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="5"/>
-      <c r="C105" s="7"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="6"/>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="7"/>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" s="9">
         <v>1</v>
@@ -3639,61 +4596,61 @@
     </row>
     <row r="110" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="9">
+        <v>1</v>
+      </c>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C111" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="5"/>
-    </row>
-    <row r="111" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="3"/>
-      <c r="C112" s="8" t="s">
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="3"/>
+      <c r="C113" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="4"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="4"/>
+      <c r="D113" s="3"/>
     </row>
     <row r="114" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="5"/>
-      <c r="C114" s="7"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="6"/>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="7"/>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" s="9">
         <v>1</v>
@@ -3702,61 +4659,61 @@
     </row>
     <row r="119" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="9">
+        <v>1</v>
+      </c>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C120" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="5"/>
-    </row>
-    <row r="120" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="3"/>
-      <c r="C121" s="8" t="s">
+      <c r="D120" s="5"/>
+    </row>
+    <row r="121" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="3"/>
+      <c r="C122" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="4"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="4"/>
+      <c r="D122" s="3"/>
     </row>
     <row r="123" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="5"/>
-      <c r="C123" s="7"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="6"/>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B124" s="5"/>
+      <c r="C124" s="7"/>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" s="9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" s="9">
         <v>1</v>
@@ -3765,61 +4722,61 @@
     </row>
     <row r="128" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="9">
+        <v>1</v>
+      </c>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C129" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D128" s="5"/>
-    </row>
-    <row r="129" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="3"/>
-      <c r="C130" s="8" t="s">
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="3"/>
+      <c r="C131" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="4"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="4"/>
+      <c r="D131" s="3"/>
     </row>
     <row r="132" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="5"/>
-      <c r="C132" s="7"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="6"/>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B133" s="5"/>
+      <c r="C133" s="7"/>
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" s="9">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" s="9">
         <v>1</v>
@@ -3828,61 +4785,61 @@
     </row>
     <row r="137" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="9">
+        <v>1</v>
+      </c>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C138" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="5"/>
-    </row>
-    <row r="138" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="3"/>
-      <c r="C139" s="8" t="s">
+      <c r="D138" s="5"/>
+    </row>
+    <row r="139" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="3"/>
+      <c r="C140" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="4"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="4"/>
+      <c r="D140" s="3"/>
     </row>
     <row r="141" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="5"/>
-      <c r="C141" s="7"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="6"/>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C144" s="9">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" s="9">
         <v>1</v>
@@ -3891,790 +4848,1527 @@
     </row>
     <row r="146" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="9">
+        <v>1</v>
+      </c>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C147" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D146" s="5"/>
-    </row>
-    <row r="147" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="3"/>
-      <c r="C148" s="8" t="s">
+      <c r="D147" s="5"/>
+    </row>
+    <row r="148" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="2:4" ht="2.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="3"/>
+      <c r="C155" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D148" s="3"/>
-    </row>
-    <row r="149" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="4"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="4"/>
-    </row>
-    <row r="150" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="5"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="10" t="s">
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="4"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C159" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" s="9">
-        <v>2</v>
-      </c>
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C154" s="9">
-        <v>1</v>
-      </c>
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="5"/>
-    </row>
-    <row r="156" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="3"/>
-      <c r="C157" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D157" s="3"/>
-    </row>
-    <row r="158" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="4"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="4"/>
-    </row>
-    <row r="159" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="5"/>
-      <c r="C159" s="7"/>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C160" s="9">
+        <v>1</v>
       </c>
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C161" s="9">
+        <v>1</v>
       </c>
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C162" s="9">
+        <v>7</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="5"/>
+    </row>
+    <row r="163" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="3"/>
+      <c r="C164" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="4"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C163" s="9">
-        <v>1</v>
-      </c>
-      <c r="D163" s="4"/>
-    </row>
-    <row r="164" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="5"/>
-    </row>
-    <row r="165" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="3"/>
-      <c r="C166" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D166" s="3"/>
-    </row>
-    <row r="167" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="4"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="4"/>
-    </row>
-    <row r="168" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="5"/>
-      <c r="C168" s="7"/>
+      <c r="C168" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C169" s="9">
+        <v>1</v>
       </c>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C170" s="9">
+        <v>1</v>
       </c>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C171" s="9">
+        <v>7</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="5"/>
+    </row>
+    <row r="172" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="3"/>
+      <c r="C173" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="4"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D171" s="4"/>
-    </row>
-    <row r="172" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C172" s="9">
-        <v>1</v>
-      </c>
-      <c r="D172" s="4"/>
-    </row>
-    <row r="173" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="5"/>
-    </row>
-    <row r="174" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="3"/>
-      <c r="C175" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D175" s="3"/>
-    </row>
-    <row r="176" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="4"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="4"/>
-    </row>
-    <row r="177" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="5"/>
-      <c r="C177" s="7"/>
+      <c r="C177" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C178" s="9">
+        <v>1</v>
       </c>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C179" s="9">
+        <v>1</v>
       </c>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C180" s="9">
+        <v>7</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="5"/>
+    </row>
+    <row r="181" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="3"/>
+      <c r="C182" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="4"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="5"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D180" s="4"/>
-    </row>
-    <row r="181" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C181" s="9">
-        <v>1</v>
-      </c>
-      <c r="D181" s="4"/>
-    </row>
-    <row r="182" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="5"/>
-    </row>
-    <row r="183" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="3"/>
-      <c r="C184" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D184" s="3"/>
-    </row>
-    <row r="185" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="4"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="4"/>
-    </row>
-    <row r="186" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="5"/>
-      <c r="C186" s="7"/>
+      <c r="C186" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C187" s="9">
+        <v>2</v>
       </c>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C188" s="9">
+        <v>1</v>
       </c>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C189" s="9">
+        <v>7</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="5"/>
+    </row>
+    <row r="190" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="3"/>
+      <c r="C191" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="4"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="5"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C190" s="9">
-        <v>1</v>
-      </c>
-      <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D191" s="5"/>
-    </row>
-    <row r="192" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="3"/>
-      <c r="C193" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D193" s="3"/>
-    </row>
-    <row r="194" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="4"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="4"/>
-    </row>
-    <row r="195" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="5"/>
-      <c r="C195" s="7"/>
+      <c r="C195" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C196" s="9">
+        <v>2</v>
       </c>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C197" s="9">
+        <v>1</v>
       </c>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C198" s="9">
+        <v>7</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="5"/>
+    </row>
+    <row r="199" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="3"/>
+      <c r="C200" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="4"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="5"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D198" s="4"/>
-    </row>
-    <row r="199" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C199" s="9">
-        <v>1</v>
-      </c>
-      <c r="D199" s="4"/>
-    </row>
-    <row r="200" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="5"/>
-    </row>
-    <row r="201" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="3"/>
-      <c r="C202" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D202" s="3"/>
-    </row>
-    <row r="203" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="4"/>
-      <c r="C203" s="6"/>
-      <c r="D203" s="4"/>
-    </row>
-    <row r="204" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="5"/>
-      <c r="C204" s="7"/>
+      <c r="C204" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C205" s="9">
+        <v>2</v>
       </c>
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C206" s="9">
+        <v>1</v>
       </c>
       <c r="D206" s="4"/>
     </row>
     <row r="207" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C207" s="9">
+        <v>7</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="5"/>
+    </row>
+    <row r="208" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="3"/>
+      <c r="C209" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D209" s="3"/>
+    </row>
+    <row r="210" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="4"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="4"/>
+    </row>
+    <row r="211" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="5"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="4"/>
+    </row>
+    <row r="212" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" s="4"/>
+    </row>
+    <row r="213" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D207" s="4"/>
-    </row>
-    <row r="208" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C208" s="9">
-        <v>1</v>
-      </c>
-      <c r="D208" s="4"/>
-    </row>
-    <row r="209" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D209" s="5"/>
-    </row>
-    <row r="210" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="3"/>
-      <c r="C211" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D211" s="3"/>
-    </row>
-    <row r="212" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="4"/>
-      <c r="C212" s="6"/>
-      <c r="D212" s="4"/>
-    </row>
-    <row r="213" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="5"/>
-      <c r="C213" s="7"/>
+      <c r="C213" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C214" s="9">
+        <v>2</v>
       </c>
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C215" s="9">
+        <v>1</v>
       </c>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C216" s="9">
+        <v>7</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="5"/>
+    </row>
+    <row r="217" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="3"/>
+      <c r="C218" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218" s="3"/>
+    </row>
+    <row r="219" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="4"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="4"/>
+    </row>
+    <row r="220" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="5"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D216" s="4"/>
-    </row>
-    <row r="217" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C217" s="9">
-        <v>1</v>
-      </c>
-      <c r="D217" s="4"/>
-    </row>
-    <row r="218" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" s="5"/>
-    </row>
-    <row r="219" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="3"/>
-      <c r="C220" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D220" s="3"/>
-    </row>
-    <row r="221" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="4"/>
-      <c r="C221" s="6"/>
-      <c r="D221" s="4"/>
-    </row>
-    <row r="222" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="5"/>
-      <c r="C222" s="7"/>
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C223" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C223" s="9">
+        <v>2</v>
       </c>
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C224" s="9">
+        <v>1</v>
       </c>
       <c r="D224" s="4"/>
     </row>
     <row r="225" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C225" s="9">
+        <v>7</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="5"/>
+    </row>
+    <row r="226" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="3"/>
+      <c r="C227" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227" s="3"/>
+    </row>
+    <row r="228" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="4"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="5"/>
+      <c r="C229" s="7"/>
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D225" s="4"/>
-    </row>
-    <row r="226" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C226" s="9">
-        <v>1</v>
-      </c>
-      <c r="D226" s="4"/>
-    </row>
-    <row r="227" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="5"/>
-    </row>
-    <row r="228" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="3"/>
-      <c r="C229" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D229" s="3"/>
-    </row>
-    <row r="230" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="4"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="4"/>
-    </row>
-    <row r="231" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="5"/>
-      <c r="C231" s="7"/>
       <c r="D231" s="4"/>
     </row>
     <row r="232" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C232" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C232" s="9">
+        <v>2</v>
       </c>
       <c r="D232" s="4"/>
     </row>
     <row r="233" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C233" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C233" s="9">
+        <v>1</v>
       </c>
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C234" s="9">
+        <v>7</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="5"/>
+    </row>
+    <row r="235" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="3"/>
+      <c r="C236" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D236" s="3"/>
+    </row>
+    <row r="237" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="4"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="4"/>
+    </row>
+    <row r="238" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="5"/>
+      <c r="C238" s="7"/>
+      <c r="D238" s="4"/>
+    </row>
+    <row r="239" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D234" s="4"/>
-    </row>
-    <row r="235" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C235" s="9">
-        <v>1</v>
-      </c>
-      <c r="D235" s="4"/>
-    </row>
-    <row r="236" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C236" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D236" s="5"/>
-    </row>
-    <row r="237" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="3"/>
-      <c r="C238" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D238" s="3"/>
-    </row>
-    <row r="239" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="4"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="4"/>
-    </row>
-    <row r="240" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="5"/>
-      <c r="C240" s="7"/>
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C241" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C241" s="9">
+        <v>3</v>
       </c>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C242" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C242" s="9">
+        <v>1</v>
       </c>
       <c r="D242" s="4"/>
     </row>
     <row r="243" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="5"/>
+    </row>
+    <row r="244" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="3"/>
+      <c r="C245" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D245" s="3"/>
+    </row>
+    <row r="246" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="4"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="5"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" s="4"/>
+    </row>
+    <row r="249" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C243" s="9">
+      <c r="C250" s="9">
+        <v>3</v>
+      </c>
+      <c r="D250" s="4"/>
+    </row>
+    <row r="251" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C251" s="9">
+        <v>1</v>
+      </c>
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" s="5"/>
+    </row>
+    <row r="253" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="3"/>
+      <c r="C254" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D254" s="3"/>
+    </row>
+    <row r="255" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="4"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="4"/>
+    </row>
+    <row r="256" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="5"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="4"/>
+    </row>
+    <row r="257" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" s="4"/>
+    </row>
+    <row r="258" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D243" s="4"/>
-    </row>
-    <row r="244" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="10" t="s">
+      <c r="D258" s="4"/>
+    </row>
+    <row r="259" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" s="9">
+        <v>3</v>
+      </c>
+      <c r="D259" s="4"/>
+    </row>
+    <row r="260" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C244" s="9">
-        <v>1</v>
-      </c>
-      <c r="D244" s="4"/>
-    </row>
-    <row r="245" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="10" t="s">
+      <c r="C260" s="9">
+        <v>1</v>
+      </c>
+      <c r="D260" s="4"/>
+    </row>
+    <row r="261" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C245" s="9" t="s">
+      <c r="C261" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D245" s="5"/>
-    </row>
-    <row r="246" spans="2:4" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D261" s="5"/>
+    </row>
+    <row r="262" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="3"/>
+      <c r="C263" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D263" s="3"/>
+    </row>
+    <row r="264" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="4"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="4"/>
+    </row>
+    <row r="265" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="5"/>
+      <c r="C265" s="7"/>
+      <c r="D265" s="4"/>
+    </row>
+    <row r="266" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266" s="4"/>
+    </row>
+    <row r="267" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D267" s="4"/>
+    </row>
+    <row r="268" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" s="9">
+        <v>3</v>
+      </c>
+      <c r="D268" s="4"/>
+    </row>
+    <row r="269" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269" s="9">
+        <v>1</v>
+      </c>
+      <c r="D269" s="4"/>
+    </row>
+    <row r="270" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" s="5"/>
+    </row>
+    <row r="271" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="3"/>
+      <c r="C272" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D272" s="3"/>
+    </row>
+    <row r="273" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="4"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="4"/>
+    </row>
+    <row r="274" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="5"/>
+      <c r="C274" s="7"/>
+      <c r="D274" s="4"/>
+    </row>
+    <row r="275" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D275" s="4"/>
+    </row>
+    <row r="276" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D276" s="4"/>
+    </row>
+    <row r="277" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" s="9">
+        <v>3</v>
+      </c>
+      <c r="D277" s="4"/>
+    </row>
+    <row r="278" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C278" s="9">
+        <v>1</v>
+      </c>
+      <c r="D278" s="4"/>
+    </row>
+    <row r="279" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" s="5"/>
+    </row>
+    <row r="280" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="3"/>
+      <c r="C281" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D281" s="3"/>
+    </row>
+    <row r="282" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="4"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="4"/>
+    </row>
+    <row r="283" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="5"/>
+      <c r="C283" s="7"/>
+      <c r="D283" s="4"/>
+    </row>
+    <row r="284" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D284" s="4"/>
+    </row>
+    <row r="285" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D285" s="4"/>
+    </row>
+    <row r="286" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" s="9">
+        <v>3</v>
+      </c>
+      <c r="D286" s="4"/>
+    </row>
+    <row r="287" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287" s="9">
+        <v>1</v>
+      </c>
+      <c r="D287" s="4"/>
+    </row>
+    <row r="288" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" s="5"/>
+    </row>
+    <row r="289" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="3"/>
+      <c r="C290" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D290" s="3"/>
+    </row>
+    <row r="291" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="4"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="4"/>
+    </row>
+    <row r="292" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="5"/>
+      <c r="C292" s="7"/>
+      <c r="D292" s="4"/>
+    </row>
+    <row r="293" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D293" s="4"/>
+    </row>
+    <row r="294" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D294" s="4"/>
+    </row>
+    <row r="295" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" s="9">
+        <v>3</v>
+      </c>
+      <c r="D295" s="4"/>
+    </row>
+    <row r="296" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C296" s="9">
+        <v>1</v>
+      </c>
+      <c r="D296" s="4"/>
+    </row>
+    <row r="297" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297" s="5"/>
+    </row>
+    <row r="298" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="2:4" ht="2.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B305" s="3"/>
+      <c r="C305" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D305" s="3"/>
+    </row>
+    <row r="306" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B306" s="4"/>
+      <c r="C306" s="6"/>
+      <c r="D306" s="4"/>
+    </row>
+    <row r="307" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="5"/>
+      <c r="C307" s="7"/>
+      <c r="D307" s="4"/>
+    </row>
+    <row r="308" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D308" s="4"/>
+    </row>
+    <row r="309" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D309" s="4"/>
+    </row>
+    <row r="310" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B310" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" s="9">
+        <v>3</v>
+      </c>
+      <c r="D310" s="4"/>
+    </row>
+    <row r="311" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B311" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C311" s="9">
+        <v>1</v>
+      </c>
+      <c r="D311" s="4"/>
+    </row>
+    <row r="312" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D312" s="5"/>
+    </row>
+    <row r="313" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B314" s="3"/>
+      <c r="C314" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D314" s="3"/>
+    </row>
+    <row r="315" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B315" s="4"/>
+      <c r="C315" s="6"/>
+      <c r="D315" s="4"/>
+    </row>
+    <row r="316" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B316" s="5"/>
+      <c r="C316" s="7"/>
+      <c r="D316" s="4"/>
+    </row>
+    <row r="317" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D317" s="4"/>
+    </row>
+    <row r="318" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B318" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D318" s="4"/>
+    </row>
+    <row r="319" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" s="9">
+        <v>3</v>
+      </c>
+      <c r="D319" s="4"/>
+    </row>
+    <row r="320" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C320" s="9">
+        <v>1</v>
+      </c>
+      <c r="D320" s="4"/>
+    </row>
+    <row r="321" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B321" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" s="5"/>
+    </row>
+    <row r="322" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B323" s="3"/>
+      <c r="C323" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D323" s="3"/>
+    </row>
+    <row r="324" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B324" s="4"/>
+      <c r="C324" s="6"/>
+      <c r="D324" s="4"/>
+    </row>
+    <row r="325" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B325" s="5"/>
+      <c r="C325" s="7"/>
+      <c r="D325" s="4"/>
+    </row>
+    <row r="326" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D326" s="4"/>
+    </row>
+    <row r="327" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B327" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C327" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D327" s="4"/>
+    </row>
+    <row r="328" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B328" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" s="9">
+        <v>4</v>
+      </c>
+      <c r="D328" s="4"/>
+    </row>
+    <row r="329" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B329" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329" s="9">
+        <v>1</v>
+      </c>
+      <c r="D329" s="4"/>
+    </row>
+    <row r="330" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D330" s="5"/>
+    </row>
+    <row r="331" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="3"/>
+      <c r="C332" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D332" s="3"/>
+    </row>
+    <row r="333" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="4"/>
+      <c r="C333" s="6"/>
+      <c r="D333" s="4"/>
+    </row>
+    <row r="334" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B334" s="5"/>
+      <c r="C334" s="7"/>
+      <c r="D334" s="4"/>
+    </row>
+    <row r="335" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D335" s="4"/>
+    </row>
+    <row r="336" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C336" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D336" s="4"/>
+    </row>
+    <row r="337" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" s="9">
+        <v>4</v>
+      </c>
+      <c r="D337" s="4"/>
+    </row>
+    <row r="338" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B338" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C338" s="9">
+        <v>1</v>
+      </c>
+      <c r="D338" s="4"/>
+    </row>
+    <row r="339" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D339" s="5"/>
+    </row>
+    <row r="340" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="3"/>
+      <c r="C341" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D341" s="3"/>
+    </row>
+    <row r="342" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B342" s="4"/>
+      <c r="C342" s="6"/>
+      <c r="D342" s="4"/>
+    </row>
+    <row r="343" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B343" s="5"/>
+      <c r="C343" s="7"/>
+      <c r="D343" s="4"/>
+    </row>
+    <row r="344" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C344" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D344" s="4"/>
+    </row>
+    <row r="345" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C345" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D345" s="4"/>
+    </row>
+    <row r="346" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B346" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346" s="9">
+        <v>4</v>
+      </c>
+      <c r="D346" s="4"/>
+    </row>
+    <row r="347" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B347" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C347" s="9">
+        <v>1</v>
+      </c>
+      <c r="D347" s="4"/>
+    </row>
+    <row r="348" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B348" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D348" s="5"/>
+    </row>
+    <row r="349" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B350" s="3"/>
+      <c r="C350" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D350" s="3"/>
+    </row>
+    <row r="351" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B351" s="4"/>
+      <c r="C351" s="6"/>
+      <c r="D351" s="4"/>
+    </row>
+    <row r="352" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B352" s="5"/>
+      <c r="C352" s="7"/>
+      <c r="D352" s="4"/>
+    </row>
+    <row r="353" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B353" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C353" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B354" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C354" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D354" s="4"/>
+    </row>
+    <row r="355" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B355" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355" s="9">
+        <v>4</v>
+      </c>
+      <c r="D355" s="4"/>
+    </row>
+    <row r="356" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B356" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C356" s="9">
+        <v>1</v>
+      </c>
+      <c r="D356" s="4"/>
+    </row>
+    <row r="357" spans="2:4" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B357" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D357" s="5"/>
+    </row>
+    <row r="358" spans="2:4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="B238:B240"/>
-    <mergeCell ref="C238:C240"/>
-    <mergeCell ref="D238:D245"/>
-    <mergeCell ref="B220:B222"/>
-    <mergeCell ref="C220:C222"/>
-    <mergeCell ref="D220:D227"/>
-    <mergeCell ref="B229:B231"/>
-    <mergeCell ref="C229:C231"/>
-    <mergeCell ref="D229:D236"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="C202:C204"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="B211:B213"/>
-    <mergeCell ref="C211:C213"/>
-    <mergeCell ref="D211:D218"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="D184:D191"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="C193:C195"/>
-    <mergeCell ref="D193:D200"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="D166:D173"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="D175:D182"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="D148:D155"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="D157:D164"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="D139:D146"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="D112:D119"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="D121:D128"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D101"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D110"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D83"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D92"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D74"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D47"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D56"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D20"/>
+  <mergeCells count="114">
+    <mergeCell ref="B341:B343"/>
+    <mergeCell ref="C341:C343"/>
+    <mergeCell ref="D341:D348"/>
+    <mergeCell ref="B350:B352"/>
+    <mergeCell ref="C350:C352"/>
+    <mergeCell ref="D350:D357"/>
+    <mergeCell ref="B323:B325"/>
+    <mergeCell ref="C323:C325"/>
+    <mergeCell ref="D323:D330"/>
+    <mergeCell ref="B332:B334"/>
+    <mergeCell ref="C332:C334"/>
+    <mergeCell ref="D332:D339"/>
+    <mergeCell ref="B305:B307"/>
+    <mergeCell ref="C305:C307"/>
+    <mergeCell ref="D305:D312"/>
+    <mergeCell ref="B314:B316"/>
+    <mergeCell ref="C314:C316"/>
+    <mergeCell ref="D314:D321"/>
+    <mergeCell ref="B281:B283"/>
+    <mergeCell ref="C281:C283"/>
+    <mergeCell ref="D281:D288"/>
+    <mergeCell ref="B290:B292"/>
+    <mergeCell ref="C290:C292"/>
+    <mergeCell ref="D290:D297"/>
+    <mergeCell ref="B263:B265"/>
+    <mergeCell ref="C263:C265"/>
+    <mergeCell ref="D263:D270"/>
+    <mergeCell ref="B272:B274"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="D272:D279"/>
+    <mergeCell ref="B245:B247"/>
+    <mergeCell ref="C245:C247"/>
+    <mergeCell ref="D245:D252"/>
+    <mergeCell ref="B254:B256"/>
+    <mergeCell ref="C254:C256"/>
+    <mergeCell ref="D254:D261"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="C227:C229"/>
+    <mergeCell ref="D227:D234"/>
+    <mergeCell ref="B236:B238"/>
+    <mergeCell ref="C236:C238"/>
+    <mergeCell ref="D236:D243"/>
+    <mergeCell ref="B209:B211"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="D209:D216"/>
+    <mergeCell ref="B218:B220"/>
+    <mergeCell ref="C218:C220"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="C191:C193"/>
+    <mergeCell ref="D191:D198"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="D200:D207"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="C173:C175"/>
+    <mergeCell ref="D173:D180"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="D182:D189"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D162"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="D164:D171"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D138"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="D140:D147"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="D113:D120"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="D95:D102"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="D104:D111"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D84"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D66"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D39"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D21"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.31496062992125984" bottom="0.31496062992125984" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
